--- a/data/clean/num_turists_by_ccaa.xlsx
+++ b/data/clean/num_turists_by_ccaa.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -508,7 +508,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -524,7 +524,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -556,7 +556,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -588,7 +588,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -604,7 +604,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -636,7 +636,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -668,7 +668,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -748,7 +748,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -780,7 +780,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -796,7 +796,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -812,7 +812,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -828,7 +828,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -844,7 +844,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -860,7 +860,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -876,7 +876,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -892,7 +892,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -924,7 +924,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -940,7 +940,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -956,7 +956,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -972,7 +972,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Turista</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C82" t="n">
